--- a/pred_ohlcv/54_21/2020-01-20 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BTG ohlcv.xlsx
@@ -2420,7 +2420,7 @@
         <v>-15364.12188235999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-15393.58148235999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-15359.58148235999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-15404.02498235999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-24558.99072267</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-24558.99072267</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-24712.48182267</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-24730.57119274</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-24666.28062576</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-24584.84860954</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-24563.09747585</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-24618.48707585</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-23371.30347585</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-23371.30347585</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-23424.87347585</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-24549.20751566</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-24529.24371566</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-25122.92671566</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-25295.25601566</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-25418.02961565999</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-25543.25361565999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-26845.06261565999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-26845.06261565999</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-26838.49611565999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-26838.49611565999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-26841.60451565999</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-26912.36361565999</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-27178.65481565999</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-27588.15481565999</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-27206.73631565999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-27233.17031565999</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-27175.60151565999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-26995.48051565999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-26995.48051565999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-26944.84351565999</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-26852.05542450999</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-26852.05542450999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-33226.57856256</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-33191.14486256</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-32370.61076256</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-31368.73722026</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-31754.33962026</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-31129.36172026</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-31399.09512026</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-30892.26612026</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-31545.05312026</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-31408.45312026</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-30419.87582026</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-30419.87582026</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-29312.45862026</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-30448.94942026</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-30333.79752026</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-31068.59442026</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-31068.59442026</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-30879.51602026</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-30879.51602026</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-30882.04976259</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-30882.04976259</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-30696.93676259</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-30533.14646259</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-30788.28319763</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-30004.4368198</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-21035.02651962999</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-20642.83451962999</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-20767.01081962999</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-20778.77591962999</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-19870.51181962999</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-19870.69801962999</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-19775.55381962999</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-17581.37351962999</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-17163.15911962999</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-16806.56351962999</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-16989.34351962999</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-16455.15811962999</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-17240.68291962999</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-17078.89951962999</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-16602.62121962999</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-16618.35421962999</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-18205.09991962999</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-18433.50661962999</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-18824.41311962999</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-19540.54491962999</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-19444.33059807999</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-19838.46819807999</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-19779.83639807999</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-20669.31309807999</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-20669.31309807999</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-20669.31309807999</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-21249.28249807999</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-21779.83809807998</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-21724.18939807998</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-21317.89109807998</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-21297.19159807999</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-21297.19159807999</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-21251.76549807999</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-21252.90449807998</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-21245.47499807999</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-21321.69479807999</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-21281.98319807999</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-21423.11739807998</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-53268.43685182997</v>
       </c>
       <c r="H976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-52262.79237319998</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-52159.62897319998</v>
       </c>
       <c r="H978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-54330.43057319998</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-54330.43057319998</v>
       </c>
       <c r="H980">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-54301.28357174998</v>
       </c>
       <c r="H981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-54143.75596098998</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-56229.49587636998</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-54857.58208797998</v>
       </c>
       <c r="H987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-53771.49538795998</v>
       </c>
       <c r="H988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-50593.40992079998</v>
       </c>
       <c r="H1013">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-50881.94172079999</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-50881.94172079999</v>
       </c>
       <c r="H1024">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-50872.23482079999</v>
       </c>
       <c r="H1025">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-50859.47622079999</v>
       </c>
       <c r="H1026">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-50851.06622079998</v>
       </c>
       <c r="H1027">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-50673.17762079999</v>
       </c>
       <c r="H1028">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-50673.17762079999</v>
       </c>
       <c r="H1029">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-50673.17762079999</v>
       </c>
       <c r="H1030">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-50681.15662079999</v>
       </c>
       <c r="H1031">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-50778.70142079999</v>
       </c>
       <c r="H1032">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-50899.37842079999</v>
       </c>
       <c r="H1033">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-51428.2933208</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-51348.7307208</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-51270.36758747</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-51705.01916187</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-51712.42276187</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-51759.63356187</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-51724.76762951</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-51534.89944551999</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-52607.26782295999</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-52507.26782295999</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-52077.31238798999</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-52077.31238798999</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-52083.31107001999</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-52167.39287001999</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-52256.87977001999</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-52251.54675986999</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-52696.62945986999</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-52696.62945986999</v>
       </c>
       <c r="H1076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-52101.28378344999</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-52168.28051743999</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-52172.32321743999</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BTG ohlcv.xlsx
@@ -2420,7 +2420,7 @@
         <v>-15364.12188235999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-15393.58148235999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-15359.58148235999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-15404.02498235999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-24558.99072267</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-24558.99072267</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-24712.48182267</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-24730.57119274</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-24666.28062576</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-24584.84860954</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-24586.03728798</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-24563.09747585</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-24618.48707585</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-23371.30347585</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-23371.30347585</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-23424.87347585</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-23752.86351566</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-24549.20751566</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-24529.24371566</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-25122.92671566</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-25295.25601566</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-25357.80761566</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-25357.76761566</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-25418.02961565999</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-25543.25361565999</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-26317.31971565999</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-26304.12001565999</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-26845.06261565999</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-26845.06261565999</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-26838.49611565999</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-26838.49611565999</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-26841.60451565999</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-26912.36361565999</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-27178.65481565999</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-27588.15481565999</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-27206.73631565999</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-27233.17031565999</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-27175.60151565999</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-27060.27271565999</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-26995.48051565999</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-26995.48051565999</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-26917.86991565999</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-26944.84351565999</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-26852.05542450999</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-26852.05542450999</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-33226.57856256</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-33191.14486256</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-32370.61076256</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-31368.73722026</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-31754.33962026</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-31129.36172026</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-31399.09512026</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-30892.26612026</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-31545.05312026</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-31408.45312026</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-30419.87582026</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-30419.87582026</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-29312.45862026</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-30448.94942026</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-30333.79752026</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-30621.11722026</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-31068.59442026</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-31068.59442026</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-30879.51602026</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-30879.51602026</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-30882.04976259</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-30882.04976259</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-30696.93676259</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-30533.14646259</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-30788.28319763</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-30004.4368198</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-21035.02651962999</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-20682.22361962999</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-20642.83451962999</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-20767.01081962999</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-20778.77591962999</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-19803.48841962999</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-19803.48841962999</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-19870.51181962999</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-19870.69801962999</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-19775.55381962999</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-18367.86301962999</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-17581.37351962999</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-17163.15911962999</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-16806.56351962999</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-16989.34351962999</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-16455.15811962999</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-16640.62271962999</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-17240.68291962999</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-17078.89951962999</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-16602.62121962999</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-16707.26231962999</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-16618.35421962999</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-18205.09991962999</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-18433.50661962999</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-18824.41311962999</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-19540.54491962999</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-19444.33059807999</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-19838.46819807999</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-20669.31309807999</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-20669.31309807999</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-53042.83615182997</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-53268.43685182997</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-52262.79237319998</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-52159.62897319998</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-54330.43057319998</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-54143.75596098998</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-56229.49587636998</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-50994.25215333998</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-50593.40992079998</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-50593.40992079998</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-50593.40992079998</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-50649.45252079998</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-50681.50732079998</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-50981.50732079998</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-50881.94172079999</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-50881.94172079999</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-50872.23482079999</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-50859.47622079999</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-50851.06622079998</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-50673.17762079999</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-50673.17762079999</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-50673.17762079999</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-50681.15662079999</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-50778.70142079999</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-50899.37842079999</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-51551.91944551999</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-51654.82768205999</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-51799.01789885999</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-51799.01789885999</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-51727.79101228999</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-51719.34683729999</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-51724.37773729999</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-50976.90199885999</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-50559.92876552999</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-52466.97782295999</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-52466.97782295999</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-52466.97782295999</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-52470.54782295999</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-52607.26782295999</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-52607.26782295999</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-52607.26782295999</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-52507.26782295999</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-52077.31238798999</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-52077.31238798999</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-52083.31107001999</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-52167.39287001999</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-52256.87977001999</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-52251.54675986999</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-52696.62945986999</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-52696.62945986999</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-52101.28378344999</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-52168.28051743999</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-52172.32321743999</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
